--- a/data/outputs/management/75.xlsx
+++ b/data/outputs/management/75.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ39"/>
+  <dimension ref="A1:BR39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -927,6 +932,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1134,6 +1140,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1341,6 +1348,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1556,6 +1564,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1775,6 +1784,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1978,6 +1988,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2193,6 +2204,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2408,6 +2420,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2623,6 +2636,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2830,6 +2844,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3041,6 +3056,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3248,6 +3264,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3455,6 +3472,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3670,6 +3688,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3881,6 +3900,11 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>4493642</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4084,6 +4108,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4283,6 +4308,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4482,6 +4508,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4681,6 +4708,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4892,6 +4920,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5107,6 +5136,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5314,6 +5344,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5529,6 +5560,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5740,6 +5772,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5955,6 +5988,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6170,6 +6204,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6369,6 +6404,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6576,6 +6612,11 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr">
+        <is>
+          <t>42854135</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6783,6 +6824,11 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr">
+        <is>
+          <t>3031868</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6998,6 +7044,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7209,6 +7256,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7416,6 +7464,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7631,6 +7680,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7830,6 +7880,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8033,6 +8084,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8119,7 +8171,7 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>Govindan, Kannan/0000-0002-6204-1196; </t>
+          <t>Govindan, Kannan/0000-0002-6204-1196;</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
@@ -8248,6 +8300,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8459,6 +8512,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8658,6 +8712,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
